--- a/inst/extdata/performance_subtable_for_legal_age_on_use_by_all.xlsx
+++ b/inst/extdata/performance_subtable_for_legal_age_on_use_by_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\dmcda\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C94E2EE-E555-4B58-9D04-C81BA5C82BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5243AD9-35A3-49BB-A705-E79824167F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:G998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -609,10 +609,10 @@
         <v>62</v>
       </c>
       <c r="E4" s="7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -630,10 +630,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="7">
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="7"/>
     </row>
